--- a/Data/EC/NIT-9006406468.xlsx
+++ b/Data/EC/NIT-9006406468.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F06297-DA56-4257-9364-8EC1296219F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA1F8D4-EA93-4CEB-AFB1-C84997208BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28F3F28D-F2C9-40BD-B55E-B9AE903413A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FDDF002-B614-456D-B5AE-7B8AE13B33E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,139 +71,139 @@
     <t>ANTONIO JOSE ELJACH GOMEZ</t>
   </si>
   <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC565D0D-32DD-CE7A-8017-51E7F72BDD1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920C3E7-B60F-5756-070D-DC0E616CF914}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF071A9-186F-4756-9D92-A4DFEC820C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDAC3A-323E-4B83-BF25-FE154F13DF3B}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">

--- a/Data/EC/NIT-9006406468.xlsx
+++ b/Data/EC/NIT-9006406468.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA1F8D4-EA93-4CEB-AFB1-C84997208BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A5BB4A-9E92-4474-8F0B-0C1DEF84D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6FDDF002-B614-456D-B5AE-7B8AE13B33E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C27F65D5-5616-447C-8B9D-3F4BBFCD78E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,139 +71,139 @@
     <t>ANTONIO JOSE ELJACH GOMEZ</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -302,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -315,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -517,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2920C3E7-B60F-5756-070D-DC0E616CF914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBDAF974-FACB-EC9A-8EA9-795A4D33618B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EDAC3A-323E-4B83-BF25-FE154F13DF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195730E-C82A-4028-9442-BCAF0C6385F1}">
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
